--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_14.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\IdeaProjects\CoreInvest\nicnbk-data\nicnbk-data-service-impl\src\main\resources\export_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\IdeaProjects\unic\nicnbk-data\nicnbk-data-service-impl\src\main\resources\export_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">РТПКЗ_14!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Код формы</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>по состоянию на дату</t>
   </si>
+  <si>
+    <t>&lt;dd.MM.yyyy&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -264,18 +267,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -532,23 +529,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,6 +578,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -915,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:U274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:L33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2169,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="58"/>
+      <c r="C2" s="78" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2334,20 +2333,20 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="1"/>
@@ -2359,20 +2358,20 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -2430,71 +2429,71 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="68" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="65" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="73" t="s">
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="76" t="s">
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="21" t="s">
         <v>22</v>
       </c>
@@ -2504,7 +2503,7 @@
       <c r="K15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="77"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="1"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -2989,10 +2988,10 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="35">
         <v>17</v>
       </c>
@@ -3040,19 +3039,19 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
       <c r="M35" s="23"/>
       <c r="N35" s="38"/>
       <c r="O35" s="16"/>
@@ -3065,36 +3064,36 @@
     </row>
     <row r="36" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
       <c r="N36" s="32"/>
     </row>
     <row r="37" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
@@ -3167,9 +3166,9 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="45"/>
       <c r="F41" s="50"/>
       <c r="G41" s="39"/>
@@ -3259,118 +3258,118 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -8549,6 +8548,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B48:U48"/>
+    <mergeCell ref="B49:U49"/>
+    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B45:U45"/>
+    <mergeCell ref="B46:U46"/>
+    <mergeCell ref="B47:U47"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A10:L10"/>
@@ -8565,14 +8572,6 @@
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B48:U48"/>
-    <mergeCell ref="B49:U49"/>
-    <mergeCell ref="B36:L36"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B45:U45"/>
-    <mergeCell ref="B46:U46"/>
-    <mergeCell ref="B47:U47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_14.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_14.xlsx
@@ -15,9 +15,9 @@
     <sheet name="РТПКЗ_14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="GR_CODE_ROW">4583</definedName>
     <definedName name="GR_CODE_SHEET">4</definedName>
-    <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">РТПКЗ_14!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -187,10 +187,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -403,7 +403,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
@@ -469,14 +469,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -527,19 +527,51 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,49 +614,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -633,11 +630,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_ФормОтчет" xfId="2"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:U268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,20 +2375,20 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="1"/>
@@ -2400,20 +2400,20 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -2471,71 +2471,71 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="57" t="s">
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="54" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="62" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65" t="s">
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="21" t="s">
         <v>22</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="K15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="66"/>
+      <c r="L15" s="78"/>
       <c r="M15" s="1"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="17" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="54">
         <v>1</v>
       </c>
       <c r="D17" s="51"/>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="18" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="56">
         <v>2</v>
       </c>
       <c r="D18" s="25"/>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="56">
         <v>3</v>
       </c>
       <c r="D19" s="25"/>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="56">
         <v>4</v>
       </c>
       <c r="D20" s="25"/>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="58">
         <v>5</v>
       </c>
       <c r="D21" s="46"/>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="22" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="54">
         <v>6</v>
       </c>
       <c r="D22" s="47"/>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="23" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="56">
         <v>7</v>
       </c>
       <c r="D23" s="47"/>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="56">
         <v>8</v>
       </c>
       <c r="D24" s="47"/>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="56">
         <v>9</v>
       </c>
       <c r="D25" s="47"/>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="58">
         <v>10</v>
       </c>
       <c r="D26" s="47"/>
@@ -2868,11 +2868,11 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78">
+      <c r="B27" s="79"/>
+      <c r="C27" s="60">
         <v>11</v>
       </c>
       <c r="D27" s="52"/>
@@ -2918,22 +2918,22 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="23"/>
       <c r="N29" s="30"/>
       <c r="O29" s="16"/>
@@ -2945,37 +2945,37 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
@@ -3048,9 +3048,9 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="37"/>
       <c r="F35" s="42"/>
       <c r="G35" s="31"/>
@@ -3140,118 +3140,118 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
